--- a/biology/Botanique/Humulus/Humulus.xlsx
+++ b/biology/Botanique/Humulus/Humulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Humulus est un genre de plantes à fleurs de la famille des Cannabacées. Ce sont des plantes herbacées dont l'espèce la plus connue est le Houblon (Humulus lupulus).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des herbacées, annuelles ou vivaces, rampantes, dioïques[3], à racines pivotantes ou rhizomateuses, s'enroulant vers la droite. Les tiges sont généralement ramifiées, armées de poils qui facilitent l'escalade de ces plantes grimpantes. Les feuilles sont simples[4], opposées[3], à pétioles souvent sinueux, munis de poils à deux ramifications. Le limbe foliaire est le plus souvent cordiforme, à lobes palmés, parfois non lobé[4].
-Les inflorescences mâles sont axillaires et terminales, à panicules en cyme, dressées à pendantes, portant de 10 jusqu'à 100 petites fleurs ou plus. Les inflorescences femelles sont axillaires, en épis ou racèmes, à fleurs solitaires ou jumelées, sur pédicelles courts, sous-tendues par des bractées et des bractéoles. Les fleurs mâles et femelles se trouvent généralement sur des plants différents. Les fruits sont des akènes enveloppés par un périanthe persistant brunâtre ou parfois tacheté[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des herbacées, annuelles ou vivaces, rampantes, dioïques, à racines pivotantes ou rhizomateuses, s'enroulant vers la droite. Les tiges sont généralement ramifiées, armées de poils qui facilitent l'escalade de ces plantes grimpantes. Les feuilles sont simples, opposées, à pétioles souvent sinueux, munis de poils à deux ramifications. Le limbe foliaire est le plus souvent cordiforme, à lobes palmés, parfois non lobé.
+Les inflorescences mâles sont axillaires et terminales, à panicules en cyme, dressées à pendantes, portant de 10 jusqu'à 100 petites fleurs ou plus. Les inflorescences femelles sont axillaires, en épis ou racèmes, à fleurs solitaires ou jumelées, sur pédicelles courts, sous-tendues par des bractées et des bractéoles. Les fleurs mâles et femelles se trouvent généralement sur des plants différents. Les fruits sont des akènes enveloppés par un périanthe persistant brunâtre ou parfois tacheté.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la World Checklist of Vascular Plants[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la World Checklist of Vascular Plants :
 Humulus aculeatus Nutt., synonyme de Humulus scandens (Lour.) Merr.
 Humulus americanus Nutt., nom correct
 Humulus cordifolius Miq., nom correct
